--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -25,18 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>pricing date</t>
   </si>
   <si>
     <t>Deposits</t>
+  </si>
+  <si>
+    <t>maturity</t>
+  </si>
+  <si>
+    <t>O/N</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>T/N</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>EDM4</t>
+  </si>
+  <si>
+    <t>rate/price</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>fixings</t>
+  </si>
+  <si>
+    <t>convexity</t>
+  </si>
+  <si>
+    <t>mean revert</t>
+  </si>
+  <si>
+    <t>EDU4</t>
+  </si>
+  <si>
+    <t>EDZ4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,10 +128,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,26 +428,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">_xll.ADDIN.PRICING.DATE(TODAY())</f>
-        <v>41749</v>
+        <v>41746</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>_xll.INSTANCE.INDEX.IBOR("us_libor",C5,"3M",2,"USD Libor","Following",TRUE,"ACT/360",C5)</f>
+        <v>us_libor#0009</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>_xll.INSTANCE.SERIE.TEMPORELLE("us_libor_h",B6:B8,C6:C8,B6:C8)</f>
+        <v>us_libor_h#0033</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>41744</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.2634999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>41743</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.2864999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>41740</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.2645E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -386,20 +515,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="str">
+        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD",0,D2,"ACT/360",C2:D2)</f>
+        <v>deposits_O/N#0012</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9.0700000000000004E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="str">
+        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD",1,D3,"ACT/360",C3:D3)</f>
+        <v>deposits_T/N#0001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.4250000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="str">
+        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD",2,D4,"ACT/360",C4:D4)</f>
+        <v>deposits_1W#0003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.2149999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="str">
+        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD",2,D5,"ACT/360",C5:D5)</f>
+        <v>deposits_1M#0002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.5200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="str">
+        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD",2,D6,"ACT/360",C6:D6)</f>
+        <v>deposits_2M#0002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.9300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="str">
+        <f>_xll.INSTANCE.INTERPOLATION.FUTURE(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$4,D7,controls!$C$9,controls!$C$10,D7)</f>
+        <v>future_EDM4#0001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>99.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="str">
+        <f>_xll.INSTANCE.INTERPOLATION.FUTURE(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$4,D8,controls!$C$9,controls!$C$10,D8)</f>
+        <v>future_EDU4#0003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>99.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="str">
+        <f>_xll.INSTANCE.INTERPOLATION.FUTURE(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$4,D9,controls!$C$9,controls!$C$10,D9)</f>
+        <v>future_EDZ4#0003</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>99.721500000000006</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>pricing date</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>EDZ4</t>
+  </si>
+  <si>
+    <t>objects</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -447,7 +450,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>41746</v>
+        <f>_xll.ADDIN.PRICING.DATE()</f>
+        <v>41773</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -456,7 +460,7 @@
       </c>
       <c r="C4" s="3" t="str">
         <f>_xll.INSTANCE.INDEX.IBOR("us_libor",C5,"3M",2,"USD Libor","Following",TRUE,"ACT/360",C5)</f>
-        <v>us_libor#0009</v>
+        <v>us_libor#0000</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -465,7 +469,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>_xll.INSTANCE.SERIE.TEMPORELLE("us_libor_h",B6:B8,C6:C8,B6:C8)</f>
-        <v>us_libor_h#0033</v>
+        <v>us_libor_h#0000</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -506,6 +510,11 @@
       </c>
       <c r="C10" s="3">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +527,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -621,8 +630,8 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>_xll.INSTANCE.INTERPOLATION.FUTURE(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$4,D7,controls!$C$9,controls!$C$10,D7)</f>
-        <v>future_EDM4#0001</v>
+        <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$4,D7,controls!$C$9,controls!$C$10,D7)</f>
+        <v>future_EDM4#0002</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -636,8 +645,8 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>_xll.INSTANCE.INTERPOLATION.FUTURE(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$4,D8,controls!$C$9,controls!$C$10,D8)</f>
-        <v>future_EDU4#0003</v>
+        <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$4,D8,controls!$C$9,controls!$C$10,D8)</f>
+        <v>future_EDU4#0000</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -651,8 +660,8 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>_xll.INSTANCE.INTERPOLATION.FUTURE(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$4,D9,controls!$C$9,controls!$C$10,D9)</f>
-        <v>future_EDZ4#0003</v>
+        <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$4,D9,controls!$C$9,controls!$C$10,D9)</f>
+        <v>future_EDZ4#0000</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="controls" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -459,8 +459,8 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>_xll.INSTANCE.INDEX.IBOR("us_libor",C5,"3M",2,"USD Libor","Following",TRUE,"ACT/360",C5)</f>
-        <v>us_libor#0000</v>
+        <f>_xll.OBJECT.IBOR.INDEX("us_libor",C5,"3M",2,"USD Libor","Following",TRUE,"ACT/360",C5)</f>
+        <v>us_libor#0004</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$4,D7,controls!$C$9,controls!$C$10,D7)</f>
-        <v>future_EDM4#0002</v>
+        <v>future_EDM4#0001</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -646,7 +646,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$4,D8,controls!$C$9,controls!$C$10,D8)</f>
-        <v>future_EDU4#0000</v>
+        <v>future_EDU4#0001</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$4,D9,controls!$C$9,controls!$C$10,D9)</f>
-        <v>future_EDZ4#0000</v>
+        <v>future_EDZ4#0001</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>pricing date</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>objects</t>
+  </si>
+  <si>
+    <t>yield curve</t>
+  </si>
+  <si>
+    <t>libor fixing</t>
+  </si>
+  <si>
+    <t>rate convention</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>eq. zero rate</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -151,6 +166,10 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -450,51 +469,45 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>_xll.ADDIN.PRICING.DATE()</f>
-        <v>41773</v>
-      </c>
+        <f ca="1">_xll.ADDIN.PRICING.DATE(DATEVALUE("17/4/2014"),TODAY())</f>
+        <v>41746</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>_xll.OBJECT.IBOR.INDEX("us_libor",C5,"3M",2,"USD Libor","Following",TRUE,"ACT/360",C5)</f>
-        <v>us_libor#0004</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>_xll.INSTANCE.SERIE.TEMPORELLE("us_libor_h",B6:B8,C6:C8,B6:C8)</f>
-        <v>us_libor_h#0000</v>
+      <c r="B5" s="5">
+        <v>41744</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.2634999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
-        <v>41744</v>
+        <v>41743</v>
       </c>
       <c r="C6" s="6">
-        <v>2.2634999999999999E-3</v>
+        <v>2.2864999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
-        <v>41743</v>
+        <v>41740</v>
       </c>
       <c r="C7" s="6">
-        <v>2.2864999999999999E-3</v>
+        <v>2.2645E-3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>41740</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.2645E-3</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -512,9 +525,45 @@
         <v>0.09</v>
       </c>
     </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C14,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
+        <v>us_libor#0116</v>
+      </c>
+    </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
+        <v>us_libor_h#0112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_swap_curve",C2,"USD Libor",'yield curve components'!A2:A9)</f>
+        <v>us_swap_curve#0115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f ca="1">_xll.INSTANCE.CONVENTION.TAUX("continuous_comp","ACT/365","Continuous","Annual","unadjusted",TODAY())</f>
+        <v>continuous_comp#0109</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -535,11 +584,12 @@
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -549,14 +599,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD",0,D2,"ACT/360",C2:D2)</f>
-        <v>deposits_O/N#0012</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD",0,E2,"ACT/360",TODAY())</f>
+        <v>deposits_O/N#0126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,14 +620,22 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C2,"USD","Unadjusted",FALSE)</f>
+        <v>41750</v>
+      </c>
+      <c r="E2" s="7">
         <v>9.0700000000000004E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D2,controls!$C$16)</f>
+        <v>9.1959258853100919E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD",1,D3,"ACT/360",C3:D3)</f>
-        <v>deposits_T/N#0001</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD",0,E3,"ACT/360",TODAY())</f>
+        <v>deposits_T/N#0117</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -579,14 +643,22 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C3,"USD","Unadjusted",FALSE)</f>
+        <v>41751</v>
+      </c>
+      <c r="E3" s="7">
         <v>1.4250000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D3,controls!$C$16)</f>
+        <v>1.444777369453319E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD",2,D4,"ACT/360",C4:D4)</f>
-        <v>deposits_1W#0003</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD",0,E4,"ACT/360",TODAY())</f>
+        <v>deposits_1W#0117</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -594,14 +666,22 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C4,"USD","Unadjusted",FALSE)</f>
+        <v>41753</v>
+      </c>
+      <c r="E4" s="7">
         <v>1.2149999999999999E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D4,controls!$C$16)</f>
+        <v>1.2318604487100522E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD",2,D5,"ACT/360",C5:D5)</f>
-        <v>deposits_1M#0002</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD",0,E5,"ACT/360",TODAY())</f>
+        <v>deposits_1M#0117</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -609,14 +689,22 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C5,"USD","Unadjusted",FALSE)</f>
+        <v>41776</v>
+      </c>
+      <c r="E5" s="7">
         <v>1.5200000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D5,controls!$C$16)</f>
+        <v>1.4778643294763008E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD",2,D6,"ACT/360",C6:D6)</f>
-        <v>deposits_2M#0002</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD",0,E6,"ACT/360",TODAY())</f>
+        <v>deposits_2M#0117</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -624,14 +712,22 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C6,"USD","Unadjusted",FALSE)</f>
+        <v>41807</v>
+      </c>
+      <c r="E6" s="7">
         <v>1.9300000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D6,controls!$C$16)</f>
+        <v>1.9564856604107964E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$4,D7,controls!$C$9,controls!$C$10,D7)</f>
-        <v>future_EDM4#0001</v>
+        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$13,E7,controls!$C$9,controls!$C$10,TODAY())</f>
+        <v>future_EDM4#0123</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -639,14 +735,22 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
+        <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C7,2))</f>
+        <v>41808</v>
+      </c>
+      <c r="E7" s="8">
         <v>99.77</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D7,controls!$C$16)</f>
+        <v>1.9630125163677794E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$4,D8,controls!$C$9,controls!$C$10,D8)</f>
-        <v>future_EDU4#0001</v>
+        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$13,E8,controls!$C$9,controls!$C$10,TODAY())</f>
+        <v>future_EDU4#0119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -654,14 +758,22 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
+        <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C8,2))</f>
+        <v>41899</v>
+      </c>
+      <c r="E8" s="8">
         <v>99.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D8,controls!$C$16)</f>
+        <v>2.1792469740637079E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$4,D9,controls!$C$9,controls!$C$10,D9)</f>
-        <v>future_EDZ4#0001</v>
+        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$13,E9,controls!$C$9,controls!$C$10,TODAY())</f>
+        <v>future_EDZ4#0119</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -669,8 +781,16 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
+        <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C9,2))</f>
+        <v>41990</v>
+      </c>
+      <c r="E9" s="8">
         <v>99.721500000000006</v>
+      </c>
+      <c r="F9" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D9,controls!$C$16)</f>
+        <v>2.2675430774412374E-3</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controls" sheetId="1" r:id="rId1"/>
     <sheet name="yield curve components" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="convexityAdj">controls!$C$14</definedName>
+    <definedName name="meanRevert">controls!$C$15</definedName>
+    <definedName name="pricingDate">controls!$C$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>pricing date</t>
   </si>
@@ -66,9 +71,6 @@
     <t>rate/price</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>fixings</t>
   </si>
   <si>
@@ -87,9 +89,6 @@
     <t>objects</t>
   </si>
   <si>
-    <t>yield curve</t>
-  </si>
-  <si>
     <t>libor fixing</t>
   </si>
   <si>
@@ -100,6 +99,27 @@
   </si>
   <si>
     <t>eq. zero rate</t>
+  </si>
+  <si>
+    <t>swap_ff</t>
+  </si>
+  <si>
+    <t>fed funds fixing</t>
+  </si>
+  <si>
+    <t>libor index</t>
+  </si>
+  <si>
+    <t>fed funds index</t>
+  </si>
+  <si>
+    <t>deposit_ff</t>
+  </si>
+  <si>
+    <t>yield curve libor</t>
+  </si>
+  <si>
+    <t>yield curve OIS</t>
   </si>
 </sst>
 </file>
@@ -146,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -170,6 +190,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -478,7 +499,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -510,60 +531,116 @@
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>41744</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>41743</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>41740</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
         <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C14,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
-        <v>us_libor#0116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
-        <v>us_libor_h#0112</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C19,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
+        <v>us_libor#0068</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
+        <v>us_libor_h#0068</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_swap_curve",pricingDate,"USD Libor",'yield curve components'!A2:A9)</f>
+        <v>us_swap_curve#0068</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="str">
-        <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_swap_curve",C2,"USD Libor",'yield curve components'!A2:A9)</f>
-        <v>us_swap_curve#0115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="str">
+      <c r="C21" s="3" t="str">
         <f ca="1">_xll.INSTANCE.CONVENTION.TAUX("continuous_comp","ACT/365","Continuous","Annual","unadjusted",TODAY())</f>
-        <v>continuous_comp#0109</v>
+        <v>continuous_comp#0068</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f ca="1">_xll.OBJECT.OVERNIGHT.INDEX("us_fedfunds",C23,0,"USD","ACT/360",)</f>
+        <v>us_fedfunds#0066</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f ca="1">_xll.OBJECT.TIME.SERIES("fedfunds_h",B10:B12,C10:C12,TODAY())</f>
+        <v>fedfunds_h#0068</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_OIS_curve",pricingDate,"USD",'yield curve components'!A21:A24)</f>
+        <v>us_OIS_curve#0055</v>
       </c>
     </row>
   </sheetData>
@@ -573,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -600,19 +677,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD",0,E2,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0126</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD Libor",0,E2,"ACT/360",TODAY())</f>
+        <v>deposits_O/N#0068</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -628,14 +705,14 @@
         <v>9.0700000000000004E-4</v>
       </c>
       <c r="F2" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D2,controls!$C$16)</f>
-        <v>9.1959258853100919E-4</v>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D2,controls!$C$21)</f>
+        <v>9.1249543755665566E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD",0,E3,"ACT/360",TODAY())</f>
-        <v>deposits_T/N#0117</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD Libor",0,E3,"ACT/360",TODAY())</f>
+        <v>deposits_T/N#0068</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -651,14 +728,14 @@
         <v>1.4250000000000001E-3</v>
       </c>
       <c r="F3" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D3,controls!$C$16)</f>
-        <v>1.444777369453319E-3</v>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D3,controls!$C$21)</f>
+        <v>1.3575694975516135E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD",0,E4,"ACT/360",TODAY())</f>
-        <v>deposits_1W#0117</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD Libor",0,E4,"ACT/360",TODAY())</f>
+        <v>deposits_1W#0068</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -674,14 +751,14 @@
         <v>1.2149999999999999E-3</v>
       </c>
       <c r="F4" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D4,controls!$C$16)</f>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D4,controls!$C$21)</f>
         <v>1.2318604487100522E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD",0,E5,"ACT/360",TODAY())</f>
-        <v>deposits_1M#0117</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD Libor",0,E5,"ACT/360",TODAY())</f>
+        <v>deposits_1M#0068</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -697,14 +774,14 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="F5" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D5,controls!$C$16)</f>
-        <v>1.4778643294763008E-3</v>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D5,controls!$C$21)</f>
+        <v>1.47392599677622E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD",0,E6,"ACT/360",TODAY())</f>
-        <v>deposits_2M#0117</v>
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD Libor",0,E6,"ACT/360",TODAY())</f>
+        <v>deposits_2M#0068</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -720,14 +797,14 @@
         <v>1.9300000000000001E-3</v>
       </c>
       <c r="F6" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D6,controls!$C$16)</f>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D6,controls!$C$21)</f>
         <v>1.9564856604107964E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$13,E7,controls!$C$9,controls!$C$10,TODAY())</f>
-        <v>future_EDM4#0123</v>
+        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$18,E7,convexityAdj,meanRevert,TODAY())</f>
+        <v>future_EDM4#0068</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -743,20 +820,20 @@
         <v>99.77</v>
       </c>
       <c r="F7" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D7,controls!$C$16)</f>
-        <v>1.9630125163677794E-3</v>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D7,controls!$C$21)</f>
+        <v>1.9625764127446346E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$13,E8,controls!$C$9,controls!$C$10,TODAY())</f>
-        <v>future_EDU4#0119</v>
+        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$18,E8,convexityAdj,meanRevert,TODAY())</f>
+        <v>future_EDU4#0068</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="10">
         <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C8,2))</f>
@@ -766,20 +843,20 @@
         <v>99.76</v>
       </c>
       <c r="F8" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D8,controls!$C$16)</f>
-        <v>2.1792469740637079E-3</v>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D8,controls!$C$21)</f>
+        <v>2.1790174342472147E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$13,E9,controls!$C$9,controls!$C$10,TODAY())</f>
-        <v>future_EDZ4#0119</v>
+        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$18,E9,convexityAdj,meanRevert,TODAY())</f>
+        <v>future_EDZ4#0068</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10">
         <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C9,2))</f>
@@ -789,8 +866,100 @@
         <v>99.721500000000006</v>
       </c>
       <c r="F9" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$15,D9,controls!$C$16)</f>
-        <v>2.2675430774412374E-3</v>
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D9,controls!$C$21)</f>
+        <v>2.2673972577818297E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C21,C21,"USD",0,E21,"ACT/360",TODAY())</f>
+        <v>deposits_O/N#0039</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C21,"USD","Unadjusted",FALSE)</f>
+        <v>41750</v>
+      </c>
+      <c r="E21" s="11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F21" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D21,controls!$C$21)</f>
+        <v>9.1249543755665566E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B22 &amp; "_" &amp; C22,controls!$C$22,D22,E22)</f>
+        <v>swap_ff_T/N#0066</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C22,"USD","Unadjusted",FALSE)</f>
+        <v>41751</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D22,controls!$C$21)</f>
+        <v>1.0136048502480558E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B23 &amp; "_" &amp; C23,controls!$C$22,D23,E23)</f>
+        <v>swap_ff_1W#0024</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C23,"USD","Unadjusted",FALSE)</f>
+        <v>41753</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F23" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D23,controls!$C$21)</f>
+        <v>1.1147110855998529E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B24 &amp; "_" &amp; C24,controls!$C$22,D24,E24)</f>
+        <v>swap_ff_1M#0024</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10">
+        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C24,"USD","Unadjusted",FALSE)</f>
+        <v>41776</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F24" s="9">
+        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D24,controls!$C$21)</f>
+        <v>1.2174348971331864E-3</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C19,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
-        <v>us_libor#0068</v>
+        <v>us_libor#0001</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -595,16 +595,16 @@
       </c>
       <c r="C19" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
-        <v>us_libor_h#0068</v>
+        <v>us_libor_h#0001</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="3" t="e">
         <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_swap_curve",pricingDate,"USD Libor",'yield curve components'!A2:A9)</f>
-        <v>us_swap_curve#0068</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f ca="1">_xll.INSTANCE.CONVENTION.TAUX("continuous_comp","ACT/365","Continuous","Annual","unadjusted",TODAY())</f>
-        <v>continuous_comp#0068</v>
+        <v>continuous_comp#0001</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f ca="1">_xll.OBJECT.OVERNIGHT.INDEX("us_fedfunds",C23,0,"USD","ACT/360",)</f>
-        <v>us_fedfunds#0066</v>
+        <v>us_fedfunds#0001</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -631,16 +631,16 @@
       </c>
       <c r="C23" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("fedfunds_h",B10:B12,C10:C12,TODAY())</f>
-        <v>fedfunds_h#0068</v>
+        <v>fedfunds_h#0001</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="3" t="e">
         <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_OIS_curve",pricingDate,"USD",'yield curve components'!A21:A24)</f>
-        <v>us_OIS_curve#0055</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD Libor",0,E2,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0068</v>
+        <v>deposits_O/N#0000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -704,15 +704,15 @@
       <c r="E2" s="7">
         <v>9.0700000000000004E-4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D2,controls!$C$21)</f>
-        <v>9.1249543755665566E-4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD Libor",0,E3,"ACT/360",TODAY())</f>
-        <v>deposits_T/N#0068</v>
+        <v>deposits_T/N#0000</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -727,15 +727,15 @@
       <c r="E3" s="7">
         <v>1.4250000000000001E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D3,controls!$C$21)</f>
-        <v>1.3575694975516135E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD Libor",0,E4,"ACT/360",TODAY())</f>
-        <v>deposits_1W#0068</v>
+        <v>deposits_1W#0000</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -750,15 +750,15 @@
       <c r="E4" s="7">
         <v>1.2149999999999999E-3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D4,controls!$C$21)</f>
-        <v>1.2318604487100522E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD Libor",0,E5,"ACT/360",TODAY())</f>
-        <v>deposits_1M#0068</v>
+        <v>deposits_1M#0000</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -773,15 +773,15 @@
       <c r="E5" s="7">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D5,controls!$C$21)</f>
-        <v>1.47392599677622E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD Libor",0,E6,"ACT/360",TODAY())</f>
-        <v>deposits_2M#0068</v>
+        <v>deposits_2M#0000</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -796,15 +796,15 @@
       <c r="E6" s="7">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D6,controls!$C$21)</f>
-        <v>1.9564856604107964E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="1" t="e">
         <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$18,E7,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDM4#0068</v>
+        <v>#NAME?</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -819,15 +819,15 @@
       <c r="E7" s="8">
         <v>99.77</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D7,controls!$C$21)</f>
-        <v>1.9625764127446346E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="1" t="e">
         <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$18,E8,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDU4#0068</v>
+        <v>#NAME?</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -842,15 +842,15 @@
       <c r="E8" s="8">
         <v>99.76</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D8,controls!$C$21)</f>
-        <v>2.1790174342472147E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="1" t="e">
         <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$18,E9,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDZ4#0068</v>
+        <v>#NAME?</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -865,15 +865,15 @@
       <c r="E9" s="8">
         <v>99.721500000000006</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D9,controls!$C$21)</f>
-        <v>2.2673972577818297E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C21,C21,"USD",0,E21,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0039</v>
+        <v>deposits_O/N#0000</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -888,15 +888,15 @@
       <c r="E21" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D21,controls!$C$21)</f>
-        <v>9.1249543755665566E-4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B22 &amp; "_" &amp; C22,controls!$C$22,D22,E22)</f>
-        <v>swap_ff_T/N#0066</v>
+        <v>swap_ff_T/N#0001</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -911,15 +911,15 @@
       <c r="E22" s="11">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D22,controls!$C$21)</f>
-        <v>1.0136048502480558E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B23 &amp; "_" &amp; C23,controls!$C$22,D23,E23)</f>
-        <v>swap_ff_1W#0024</v>
+        <v>swap_ff_1W#0001</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -934,15 +934,15 @@
       <c r="E23" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D23,controls!$C$21)</f>
-        <v>1.1147110855998529E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B24 &amp; "_" &amp; C24,controls!$C$22,D24,E24)</f>
-        <v>swap_ff_1M#0024</v>
+        <v>swap_ff_1M#0001</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -957,9 +957,9 @@
       <c r="E24" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="9" t="e">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D24,controls!$C$21)</f>
-        <v>1.2174348971331864E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C19,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
-        <v>us_libor#0001</v>
+        <v>us_libor#0010</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -595,16 +595,16 @@
       </c>
       <c r="C19" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
-        <v>us_libor_h#0001</v>
+        <v>us_libor_h#0010</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="e">
-        <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_swap_curve",pricingDate,"USD Libor",'yield curve components'!A2:A9)</f>
-        <v>#NAME?</v>
+      <c r="C20" s="3" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.INTERPOLATE("us_swap_curve",pricingDate,"USD Libor",'yield curve components'!A2:A9)</f>
+        <v>us_swap_curve#0000</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f ca="1">_xll.INSTANCE.CONVENTION.TAUX("continuous_comp","ACT/365","Continuous","Annual","unadjusted",TODAY())</f>
-        <v>continuous_comp#0001</v>
+        <v>continuous_comp#0010</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f ca="1">_xll.OBJECT.OVERNIGHT.INDEX("us_fedfunds",C23,0,"USD","ACT/360",)</f>
-        <v>us_fedfunds#0001</v>
+        <v>us_fedfunds#0010</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -631,16 +631,16 @@
       </c>
       <c r="C23" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("fedfunds_h",B10:B12,C10:C12,TODAY())</f>
-        <v>fedfunds_h#0001</v>
+        <v>fedfunds_h#0010</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="e">
-        <f ca="1">_xll.INSTANCE.COURBE.INTERPOLEE("us_OIS_curve",pricingDate,"USD",'yield curve components'!A21:A24)</f>
-        <v>#NAME?</v>
+      <c r="C24" s="3" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.INTERPOLATE("us_OIS_curve",pricingDate,"USD",'yield curve components'!A21:A24)</f>
+        <v>us_OIS_curve#0001</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD Libor",0,E2,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0000</v>
+        <v>deposits_O/N#0009</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -704,15 +704,15 @@
       <c r="E2" s="7">
         <v>9.0700000000000004E-4</v>
       </c>
-      <c r="F2" s="9" t="e">
+      <c r="F2" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D2,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>9.1249543755665566E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD Libor",0,E3,"ACT/360",TODAY())</f>
-        <v>deposits_T/N#0000</v>
+        <v>deposits_T/N#0009</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -727,15 +727,15 @@
       <c r="E3" s="7">
         <v>1.4250000000000001E-3</v>
       </c>
-      <c r="F3" s="9" t="e">
+      <c r="F3" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D3,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.3575694981189271E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD Libor",0,E4,"ACT/360",TODAY())</f>
-        <v>deposits_1W#0000</v>
+        <v>deposits_1W#0009</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -750,15 +750,15 @@
       <c r="E4" s="7">
         <v>1.2149999999999999E-3</v>
       </c>
-      <c r="F4" s="9" t="e">
+      <c r="F4" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D4,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.2318604487100522E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD Libor",0,E5,"ACT/360",TODAY())</f>
-        <v>deposits_1M#0000</v>
+        <v>deposits_1M#0009</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -773,15 +773,15 @@
       <c r="E5" s="7">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="F5" s="9" t="e">
+      <c r="F5" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D5,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.4739262112122074E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD Libor",0,E6,"ACT/360",TODAY())</f>
-        <v>deposits_2M#0000</v>
+        <v>deposits_2M#0009</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -796,15 +796,15 @@
       <c r="E6" s="7">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="F6" s="9" t="e">
+      <c r="F6" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D6,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.9564856604107964E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="e">
-        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$18,E7,convexityAdj,meanRevert,TODAY())</f>
-        <v>#NAME?</v>
+      <c r="A7" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$18,E7,convexityAdj,meanRevert,TODAY())</f>
+        <v>future_EDM4#0007</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -819,15 +819,15 @@
       <c r="E7" s="8">
         <v>99.77</v>
       </c>
-      <c r="F7" s="9" t="e">
+      <c r="F7" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D7,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.9625766919984466E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="e">
-        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$18,E8,convexityAdj,meanRevert,TODAY())</f>
-        <v>#NAME?</v>
+      <c r="A8" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$18,E8,convexityAdj,meanRevert,TODAY())</f>
+        <v>future_EDU4#0006</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -842,15 +842,15 @@
       <c r="E8" s="8">
         <v>99.76</v>
       </c>
-      <c r="F8" s="9" t="e">
+      <c r="F8" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D8,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>2.1791066067921084E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="e">
-        <f ca="1">_xll.OBJECT.CURVE.FUTURE.HELPER(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$18,E9,convexityAdj,meanRevert,TODAY())</f>
-        <v>#NAME?</v>
+      <c r="A9" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$18,E9,convexityAdj,meanRevert,TODAY())</f>
+        <v>future_EDZ4#0006</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -865,15 +865,15 @@
       <c r="E9" s="8">
         <v>99.721500000000006</v>
       </c>
-      <c r="F9" s="9" t="e">
+      <c r="F9" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D9,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>2.2677462628022485E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C21,C21,"USD",0,E21,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0000</v>
+        <v>deposits_O/N#0009</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -888,15 +888,15 @@
       <c r="E21" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F21" s="9" t="e">
+      <c r="F21" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D21,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>9.1249543755665566E-4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B22 &amp; "_" &amp; C22,controls!$C$22,D22,E22)</f>
-        <v>swap_ff_T/N#0001</v>
+        <v>swap_ff_T/N#0010</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -911,15 +911,15 @@
       <c r="E22" s="11">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="9" t="e">
+      <c r="F22" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D22,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.0136048502480558E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B23 &amp; "_" &amp; C23,controls!$C$22,D23,E23)</f>
-        <v>swap_ff_1W#0001</v>
+        <v>swap_ff_1W#0010</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -934,15 +934,15 @@
       <c r="E23" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F23" s="9" t="e">
+      <c r="F23" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D23,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.1147110855998529E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B24 &amp; "_" &amp; C24,controls!$C$22,D24,E24)</f>
-        <v>swap_ff_1M#0001</v>
+        <v>swap_ff_1M#0010</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -957,9 +957,9 @@
       <c r="E24" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F24" s="9" t="e">
+      <c r="F24" s="9">
         <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D24,controls!$C$21)</f>
-        <v>#VALUE!</v>
+        <v>1.2174348971331864E-3</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C19,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
-        <v>us_libor#0010</v>
+        <v>us_libor#0008</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
       </c>
       <c r="C19" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
-        <v>us_libor_h#0010</v>
+        <v>us_libor_h#0008</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -604,7 +604,7 @@
       </c>
       <c r="C20" s="3" t="str">
         <f ca="1">_xll.OBJECT.CURVE.INTERPOLATE("us_swap_curve",pricingDate,"USD Libor",'yield curve components'!A2:A9)</f>
-        <v>us_swap_curve#0000</v>
+        <v>us_swap_curve#0007</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f ca="1">_xll.INSTANCE.CONVENTION.TAUX("continuous_comp","ACT/365","Continuous","Annual","unadjusted",TODAY())</f>
-        <v>continuous_comp#0010</v>
+        <v>continuous_comp#0008</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f ca="1">_xll.OBJECT.OVERNIGHT.INDEX("us_fedfunds",C23,0,"USD","ACT/360",)</f>
-        <v>us_fedfunds#0010</v>
+        <v>us_fedfunds#0008</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("fedfunds_h",B10:B12,C10:C12,TODAY())</f>
-        <v>fedfunds_h#0010</v>
+        <v>fedfunds_h#0008</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f ca="1">_xll.OBJECT.CURVE.INTERPOLATE("us_OIS_curve",pricingDate,"USD",'yield curve components'!A21:A24)</f>
-        <v>us_OIS_curve#0001</v>
+        <v>us_OIS_curve#0000</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD Libor",0,E2,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0009</v>
+        <v>deposits_O/N#0007</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C2,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C2,"USD","Unadjusted",FALSE)</f>
         <v>41750</v>
       </c>
       <c r="E2" s="7">
@@ -712,7 +712,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD Libor",0,E3,"ACT/360",TODAY())</f>
-        <v>deposits_T/N#0009</v>
+        <v>deposits_T/N#0007</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C3,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C3,"USD","Unadjusted",FALSE)</f>
         <v>41751</v>
       </c>
       <c r="E3" s="7">
@@ -735,7 +735,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD Libor",0,E4,"ACT/360",TODAY())</f>
-        <v>deposits_1W#0009</v>
+        <v>deposits_1W#0007</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C4,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C4,"USD","Unadjusted",FALSE)</f>
         <v>41753</v>
       </c>
       <c r="E4" s="7">
@@ -758,7 +758,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD Libor",0,E5,"ACT/360",TODAY())</f>
-        <v>deposits_1M#0009</v>
+        <v>deposits_1M#0007</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C5,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C5,"USD","Unadjusted",FALSE)</f>
         <v>41776</v>
       </c>
       <c r="E5" s="7">
@@ -781,7 +781,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD Libor",0,E6,"ACT/360",TODAY())</f>
-        <v>deposits_2M#0009</v>
+        <v>deposits_2M#0007</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C6,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C6,"USD","Unadjusted",FALSE)</f>
         <v>41807</v>
       </c>
       <c r="E6" s="7">
@@ -804,7 +804,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$18,E7,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDM4#0007</v>
+        <v>future_EDM4#0008</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -827,7 +827,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$18,E8,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDU4#0006</v>
+        <v>future_EDU4#0008</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -850,7 +850,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$18,E9,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDZ4#0006</v>
+        <v>future_EDZ4#0008</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -873,7 +873,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C21,C21,"USD",0,E21,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0009</v>
+        <v>deposits_O/N#0007</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -882,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C21,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C21,"USD","Unadjusted",FALSE)</f>
         <v>41750</v>
       </c>
       <c r="E21" s="11">
@@ -896,7 +896,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B22 &amp; "_" &amp; C22,controls!$C$22,D22,E22)</f>
-        <v>swap_ff_T/N#0010</v>
+        <v>swap_ff_T/N#0000</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C22,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C22,"USD","Unadjusted",FALSE)</f>
         <v>41751</v>
       </c>
       <c r="E22" s="11">
@@ -919,7 +919,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B23 &amp; "_" &amp; C23,controls!$C$22,D23,E23)</f>
-        <v>swap_ff_1W#0010</v>
+        <v>swap_ff_1W#0000</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C23,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C23,"USD","Unadjusted",FALSE)</f>
         <v>41753</v>
       </c>
       <c r="E23" s="11">
@@ -942,7 +942,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B24 &amp; "_" &amp; C24,controls!$C$22,D24,E24)</f>
-        <v>swap_ff_1M#0010</v>
+        <v>swap_ff_1M#0000</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="10">
-        <f ca="1">_xll.CALENDRIER.GAP.FINANCE(controls!$C$2,$C24,"USD","Unadjusted",FALSE)</f>
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C24,"USD","Unadjusted",FALSE)</f>
         <v>41776</v>
       </c>
       <c r="E24" s="11">

--- a/workbooks/yieldCurveBuilding.xlsx
+++ b/workbooks/yieldCurveBuilding.xlsx
@@ -16,9 +16,12 @@
     <sheet name="yield curve components" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="cont_conv">controls!$C$21</definedName>
     <definedName name="convexityAdj">controls!$C$14</definedName>
     <definedName name="meanRevert">controls!$C$15</definedName>
+    <definedName name="ois_curve">controls!$C$24</definedName>
     <definedName name="pricingDate">controls!$C$2</definedName>
+    <definedName name="swap_curve">controls!$C$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>pricing date</t>
   </si>
@@ -586,7 +589,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f ca="1">_xll.OBJECT.IBOR.INDEX("us_libor",C19,"3M",2,"USD Libor","Following",TRUE,"ACT/360",)</f>
-        <v>us_libor#0008</v>
+        <v>us_libor#0019</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -595,7 +598,7 @@
       </c>
       <c r="C19" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("us_libor_h",B5:B7,C5:C7,TODAY())</f>
-        <v>us_libor_h#0008</v>
+        <v>us_libor_h#0019</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -604,7 +607,7 @@
       </c>
       <c r="C20" s="3" t="str">
         <f ca="1">_xll.OBJECT.CURVE.INTERPOLATE("us_swap_curve",pricingDate,"USD Libor",'yield curve components'!A2:A9)</f>
-        <v>us_swap_curve#0007</v>
+        <v>us_swap_curve#0018</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -613,7 +616,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f ca="1">_xll.INSTANCE.CONVENTION.TAUX("continuous_comp","ACT/365","Continuous","Annual","unadjusted",TODAY())</f>
-        <v>continuous_comp#0008</v>
+        <v>continuous_comp#0019</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -622,7 +625,7 @@
       </c>
       <c r="C22" s="3" t="str">
         <f ca="1">_xll.OBJECT.OVERNIGHT.INDEX("us_fedfunds",C23,0,"USD","ACT/360",)</f>
-        <v>us_fedfunds#0008</v>
+        <v>us_fedfunds#0019</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -631,7 +634,7 @@
       </c>
       <c r="C23" s="3" t="str">
         <f ca="1">_xll.OBJECT.TIME.SERIES("fedfunds_h",B10:B12,C10:C12,TODAY())</f>
-        <v>fedfunds_h#0008</v>
+        <v>fedfunds_h#0019</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -640,7 +643,7 @@
       </c>
       <c r="C24" s="3" t="str">
         <f ca="1">_xll.OBJECT.CURVE.INTERPOLATE("us_OIS_curve",pricingDate,"USD",'yield curve components'!A21:A24)</f>
-        <v>us_OIS_curve#0000</v>
+        <v>us_OIS_curve#0018</v>
       </c>
     </row>
   </sheetData>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -688,8 +691,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C2,C2,"USD Libor",0,E2,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0007</v>
+        <f ca="1">_xll.OBJECT.CURVE.DEPOSIT.HELPER2("deposits_" &amp; C2,C2,"USD Libor",0,E2,"ACT/360",TODAY())</f>
+        <v>deposits_O/N#0018</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -705,14 +708,14 @@
         <v>9.0700000000000004E-4</v>
       </c>
       <c r="F2" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D2,controls!$C$21)</f>
-        <v>9.1249543755665566E-4</v>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D2,cont_conv)</f>
+        <v>5.8853851527291569E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C3,C3,"USD Libor",0,E3,"ACT/360",TODAY())</f>
-        <v>deposits_T/N#0007</v>
+        <f ca="1">_xll.OBJECT.CURVE.DEPOSIT.HELPER2("deposits_" &amp; C3,C3,"USD Libor",0,E3,"ACT/360",TODAY())</f>
+        <v>deposits_T/N#0018</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -728,14 +731,14 @@
         <v>1.4250000000000001E-3</v>
       </c>
       <c r="F3" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D3,controls!$C$21)</f>
-        <v>1.3575694981189271E-3</v>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D3,cont_conv)</f>
+        <v>9.195914301033597E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C4,C4,"USD Libor",0,E4,"ACT/360",TODAY())</f>
-        <v>deposits_1W#0007</v>
+        <f ca="1">_xll.OBJECT.CURVE.DEPOSIT.HELPER2("deposits_" &amp; C4,C4,"USD Libor",0,E4,"ACT/360",TODAY())</f>
+        <v>deposits_1W#0018</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -751,14 +754,14 @@
         <v>1.2149999999999999E-3</v>
       </c>
       <c r="F4" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D4,controls!$C$21)</f>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D4,cont_conv)</f>
         <v>1.2318604487100522E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C5,C5,"USD Libor",0,E5,"ACT/360",TODAY())</f>
-        <v>deposits_1M#0007</v>
+        <f ca="1">_xll.OBJECT.CURVE.DEPOSIT.HELPER2("deposits_" &amp; C5,C5,"USD Libor",0,E5,"ACT/360",TODAY())</f>
+        <v>deposits_1M#0018</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -774,14 +777,14 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="F5" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D5,controls!$C$21)</f>
-        <v>1.4739262112122074E-3</v>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D5,cont_conv)</f>
+        <v>1.4639246228048293E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C6,C6,"USD Libor",0,E6,"ACT/360",TODAY())</f>
-        <v>deposits_2M#0007</v>
+        <f ca="1">_xll.OBJECT.CURVE.DEPOSIT.HELPER2("deposits_" &amp; C6,C6,"USD Libor",0,E6,"ACT/360",TODAY())</f>
+        <v>deposits_2M#0018</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -797,14 +800,14 @@
         <v>1.9300000000000001E-3</v>
       </c>
       <c r="F6" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D6,controls!$C$21)</f>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D6,cont_conv)</f>
         <v>1.9564856604107964E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B7 &amp; "_" &amp; C7,RIGHT(C7,2),controls!$C$18,E7,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDM4#0008</v>
+        <v>future_EDM4#0019</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -813,21 +816,21 @@
         <v>11</v>
       </c>
       <c r="D7" s="10">
-        <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C7,2))</f>
+        <f ca="1">_xll.CALENDAR.IMM.DATE(controls!$C$2,RIGHT(C7,2))</f>
         <v>41808</v>
       </c>
       <c r="E7" s="8">
         <v>99.77</v>
       </c>
       <c r="F7" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D7,controls!$C$21)</f>
-        <v>1.9625766919984466E-3</v>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D7,cont_conv)</f>
+        <v>1.9614691856170772E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B8 &amp; "_" &amp; C8,RIGHT(C8,2),controls!$C$18,E8,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDU4#0008</v>
+        <v>future_EDU4#0019</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -836,21 +839,21 @@
         <v>16</v>
       </c>
       <c r="D8" s="10">
-        <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C8,2))</f>
+        <f ca="1">_xll.CALENDAR.IMM.DATE(controls!$C$2,RIGHT(C8,2))</f>
         <v>41899</v>
       </c>
       <c r="E8" s="8">
         <v>99.76</v>
       </c>
       <c r="F8" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D8,controls!$C$21)</f>
-        <v>2.1791066067921084E-3</v>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D8,cont_conv)</f>
+        <v>2.1785236872792768E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.FUTURE(B9 &amp; "_" &amp; C9,RIGHT(C9,2),controls!$C$18,E9,convexityAdj,meanRevert,TODAY())</f>
-        <v>future_EDZ4#0008</v>
+        <v>future_EDZ4#0019</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -859,21 +862,21 @@
         <v>17</v>
       </c>
       <c r="D9" s="10">
-        <f ca="1">_xll.CALENDRIER.DATE.IMM(controls!$C$2,RIGHT(C9,2))</f>
+        <f ca="1">_xll.CALENDAR.IMM.DATE(controls!$C$2,RIGHT(C9,2))</f>
         <v>41990</v>
       </c>
       <c r="E9" s="8">
         <v>99.721500000000006</v>
       </c>
       <c r="F9" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$20,D9,controls!$C$21)</f>
-        <v>2.2677462628022485E-3</v>
+        <f ca="1">_xll.CURVE.ZERO.RATE(swap_curve,D9,cont_conv)</f>
+        <v>2.2673759440633976E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f ca="1">_xll.OBJECT.CURVE.HELPER.DEPOSIT2("deposits_" &amp; C21,C21,"USD",0,E21,"ACT/360",TODAY())</f>
-        <v>deposits_O/N#0007</v>
+        <f ca="1">_xll.OBJECT.CURVE.DEPOSIT.HELPER2("deposits_" &amp; C21,C21,"USD",0,E21,"ACT/360",TODAY())</f>
+        <v>deposits_O/N#0018</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -888,15 +891,15 @@
       <c r="E21" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F21" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D21,controls!$C$21)</f>
-        <v>9.1249543755665566E-4</v>
+      <c r="F21" s="9" t="e">
+        <f ca="1">_xll.CURVE.ZERO.RATE(ois_curve,D21,cont_conv)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B22 &amp; "_" &amp; C22,controls!$C$22,D22,E22)</f>
-        <v>swap_ff_T/N#0000</v>
+        <v>swap_ff_T/N#0019</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -911,15 +914,15 @@
       <c r="E22" s="11">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D22,controls!$C$21)</f>
-        <v>1.0136048502480558E-3</v>
+      <c r="F22" s="9" t="e">
+        <f ca="1">_xll.CURVE.ZERO.RATE(ois_curve,D22,cont_conv)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B23 &amp; "_" &amp; C23,controls!$C$22,D23,E23)</f>
-        <v>swap_ff_1W#0000</v>
+        <v>swap_ff_1W#0019</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -934,15 +937,15 @@
       <c r="E23" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F23" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D23,controls!$C$21)</f>
-        <v>1.1147110855998529E-3</v>
+      <c r="F23" s="9" t="e">
+        <f ca="1">_xll.CURVE.ZERO.RATE(ois_curve,D23,cont_conv)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B24 &amp; "_" &amp; C24,controls!$C$22,D24,E24)</f>
-        <v>swap_ff_1M#0000</v>
+        <v>swap_ff_1M#0019</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -957,9 +960,32 @@
       <c r="E24" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F24" s="9">
-        <f ca="1">_xll.COURBE.TAUX.ZERO(controls!$C$24,D24,controls!$C$21)</f>
-        <v>1.2174348971331864E-3</v>
+      <c r="F24" s="9" t="e">
+        <f ca="1">_xll.CURVE.ZERO.RATE(ois_curve,D24,cont_conv)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="str">
+        <f ca="1">_xll.OBJECT.CURVE.HELPER.OVERNIGHT.SWAP(B25 &amp; "_" &amp; C25,controls!$C$22,D25,E25)</f>
+        <v>swap_ff_2M#0019</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="10">
+        <f ca="1">_xll.CALENDAR.GAP(controls!$C$2,$C25,"USD","Unadjusted",FALSE)</f>
+        <v>41807</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F25" s="9" t="e">
+        <f ca="1">_xll.CURVE.ZERO.RATE(ois_curve,D25,cont_conv)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
